--- a/KetQuaTest_RegisterService.xlsx
+++ b/KetQuaTest_RegisterService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>User: newuser, Email: new@mail.com</t>
+  </si>
+  <si>
+    <t>REG_SVC_09</t>
+  </si>
+  <si>
+    <t>Username chứa khoảng trắng</t>
+  </si>
+  <si>
+    <t>Nhập 'my user'</t>
+  </si>
+  <si>
+    <t>User: 'my user'</t>
   </si>
   <si>
     <t>REG_SVC_03</t>
@@ -225,14 +237,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="33.33203125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="35.0" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.22265625" customWidth="true" bestFit="true"/>
@@ -438,12 +450,35 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s" s="2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/KetQuaTest_RegisterService.xlsx
+++ b/KetQuaTest_RegisterService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -35,66 +35,90 @@
     <t>Trạng Thái</t>
   </si>
   <si>
-    <t>REG_SVC_04</t>
-  </si>
-  <si>
-    <t>Email sai định dạng</t>
+    <t>REG_SVC_06</t>
+  </si>
+  <si>
+    <t>Email sai đuôi tên miền</t>
+  </si>
+  <si>
+    <t>Email: test@domain.c</t>
+  </si>
+  <si>
+    <t>Check Regex {2,6}: Đuôi quá ngắn (.c) hoặc quá dài</t>
+  </si>
+  <si>
+    <t>Result: INVALID_INPUT</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>REG_SVC_05</t>
+  </si>
+  <si>
+    <t>Email thiếu ký tự @</t>
+  </si>
+  <si>
+    <t>Email: invalid-email</t>
   </si>
   <si>
     <t>Nhập email không có @</t>
   </si>
   <si>
-    <t>Email: invalid-email</t>
-  </si>
-  <si>
-    <t>Result: INVALID_INPUT</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>REG_SVC_05</t>
+    <t>REG_SVC_10</t>
+  </si>
+  <si>
+    <t>Đăng ký với Input toàn Space</t>
+  </si>
+  <si>
+    <t>User: "   "</t>
+  </si>
+  <si>
+    <t>Check logic trim().isEmpty()</t>
+  </si>
+  <si>
+    <t>REG_SVC_07</t>
   </si>
   <si>
     <t>Lỗi DB khi Insert</t>
   </si>
   <si>
+    <t>Data hợp lệ</t>
+  </si>
+  <si>
     <t>Mock DAO register trả về false</t>
   </si>
   <si>
-    <t>Data hợp lệ</t>
-  </si>
-  <si>
     <t>Result: REGISTRATION_FAILED</t>
   </si>
   <si>
-    <t>REG_SVC_06</t>
+    <t>REG_SVC_08</t>
   </si>
   <si>
     <t>Đăng ký với Input Null</t>
   </si>
   <si>
+    <t>User: null</t>
+  </si>
+  <si>
     <t>Truyền username = null</t>
   </si>
   <si>
-    <t>User: null</t>
-  </si>
-  <si>
-    <t>REG_SVC_08</t>
+    <t>REG_SVC_11</t>
   </si>
   <si>
     <t>Mật khẩu đúng 6 ký tự (Biên)</t>
   </si>
   <si>
+    <t>Pass: 123456</t>
+  </si>
+  <si>
     <t>Pass dài 6 ký tự (hợp lệ)</t>
   </si>
   <si>
-    <t>Pass: 123456</t>
-  </si>
-  <si>
     <t>Result: SUCCESS</t>
   </si>
   <si>
@@ -102,61 +126,61 @@
   </si>
   <si>
     <t>Đăng ký thành công</t>
+  </si>
+  <si>
+    <t>User: newuser, Email: new@mail.com</t>
   </si>
   <si>
     <t>1. Input hợp lệ
 2. Mock DAO trả về true</t>
   </si>
   <si>
-    <t>User: newuser, Email: new@mail.com</t>
+    <t>REG_SVC_03</t>
+  </si>
+  <si>
+    <t>Username chứa khoảng trắng</t>
+  </si>
+  <si>
+    <t>User: 'my user'</t>
+  </si>
+  <si>
+    <t>Nhập 'my user'</t>
+  </si>
+  <si>
+    <t>REG_SVC_04</t>
+  </si>
+  <si>
+    <t>Mật khẩu quá ngắn (&lt;6)</t>
+  </si>
+  <si>
+    <t>Pass: 123</t>
+  </si>
+  <si>
+    <t>Nhập pass 3 ký tự</t>
   </si>
   <si>
     <t>REG_SVC_09</t>
   </si>
   <si>
-    <t>Username chứa khoảng trắng</t>
-  </si>
-  <si>
-    <t>Nhập 'my user'</t>
-  </si>
-  <si>
-    <t>User: 'my user'</t>
-  </si>
-  <si>
-    <t>REG_SVC_03</t>
-  </si>
-  <si>
-    <t>Mật khẩu quá ngắn (&lt;6)</t>
-  </si>
-  <si>
-    <t>Nhập pass 3 ký tự</t>
-  </si>
-  <si>
-    <t>Pass: 123</t>
-  </si>
-  <si>
-    <t>REG_SVC_07</t>
-  </si>
-  <si>
     <t>Đăng ký với Input Rỗng</t>
   </si>
   <si>
-    <t>Truyền username = "" (chuỗi rỗng)</t>
-  </si>
-  <si>
     <t>User: ""</t>
   </si>
   <si>
+    <t>Truyền username = ""</t>
+  </si>
+  <si>
     <t>REG_SVC_02</t>
   </si>
   <si>
     <t>Đăng ký trùng Username</t>
   </si>
   <si>
+    <t>User: existingUser</t>
+  </si>
+  <si>
     <t>1. Mock DAO checkUserExists = true</t>
-  </si>
-  <si>
-    <t>User: existingUser</t>
   </si>
   <si>
     <t>Result: USERNAME_EXISTS</t>
@@ -237,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -245,8 +269,8 @@
   <cols>
     <col min="1" max="1" width="12.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.33203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="46.15234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.22265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -312,7 +336,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -323,16 +347,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -346,19 +370,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -369,19 +393,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -392,19 +416,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -427,7 +451,7 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -473,12 +497,58 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="2">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>13</v>
       </c>
     </row>
